--- a/medicine/Mort/Mémorial_aux_Juifs_assassinés_de_Marioupol/Mémorial_aux_Juifs_assassinés_de_Marioupol.xlsx
+++ b/medicine/Mort/Mémorial_aux_Juifs_assassinés_de_Marioupol/Mémorial_aux_Juifs_assassinés_de_Marioupol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9morial_aux_Juifs_assassin%C3%A9s_de_Marioupol</t>
+          <t>Mémorial_aux_Juifs_assassinés_de_Marioupol</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Mémorial aux Juifs assassinés de Marioupol, également appelé Mémorial Menorah, est un monument situé dans le cimetière de Berdiansk à l'est de la ville de Marioupol, en Ukraine, perpétuant le souvenir des victimes juives de Marioupol exterminées par les nazis au cours de la Shoah. C'est un monument culturel classé sous le numéro 99-142-3901[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Mémorial aux Juifs assassinés de Marioupol, également appelé Mémorial Menorah, est un monument situé dans le cimetière de Berdiansk à l'est de la ville de Marioupol, en Ukraine, perpétuant le souvenir des victimes juives de Marioupol exterminées par les nazis au cours de la Shoah. C'est un monument culturel classé sous le numéro 99-142-3901.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9morial_aux_Juifs_assassin%C3%A9s_de_Marioupol</t>
+          <t>Mémorial_aux_Juifs_assassinés_de_Marioupol</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pendant la Seconde Guerre mondiale, Marioupol fut occupée par l'Allemagne nazie du 8 octobre 1941 au 10 septembre 1943.
-L'extermination de Juifs de Marioupol fut effectuée par le Sonderkommando 10A, qui faisait partie de l’Einsatzgruppe D. Le chef était l'Obersturmbannführer Heinz Seetzen[2]. Les Allemands fusillent environ 10 000 juifs de Marioupol du 20 octobre 1941 au 21 octobre 1941 à Berdiansk. 
+L'extermination de Juifs de Marioupol fut effectuée par le Sonderkommando 10A, qui faisait partie de l’Einsatzgruppe D. Le chef était l'Obersturmbannführer Heinz Seetzen. Les Allemands fusillent environ 10 000 juifs de Marioupol du 20 octobre 1941 au 21 octobre 1941 à Berdiansk. 
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9morial_aux_Juifs_assassin%C3%A9s_de_Marioupol</t>
+          <t>Mémorial_aux_Juifs_assassinés_de_Marioupol</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Mémorial</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L’œuvre est constituée d'une menorah à sept branches, d'une étoile de David et de deux stèles commémoratives avec des inscriptions[3],[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L’œuvre est constituée d'une menorah à sept branches, d'une étoile de David et de deux stèles commémoratives avec des inscriptions, :
 "Victimes du génocide fasciste – les Juifs de Marioupol ont été fusillés ici. octobre 1941" („Здесь расстреляны жертвы фашистского геноцида - евреи Мариуполя. Октябрь 1941 года. Пусть их души будут связаны с живыми“)
 "Je donnerai dans ma maison et dans mes murs une place et un nom Préférables à des fils et à des filles ; Je leur donnerai un nom éternel" (Isaïe 56:5)</t>
         </is>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M%C3%A9morial_aux_Juifs_assassin%C3%A9s_de_Marioupol</t>
+          <t>Mémorial_aux_Juifs_assassinés_de_Marioupol</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Bibliografie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Лев Давыдович Яруцкий (Lev Yarutsky) : «Евреи Приазовья» (Juifs de la mer Azov), Маriupol 1996</t>
         </is>
